--- a/media/product-detail.xlsx
+++ b/media/product-detail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNU\Sem7\Project Part-2\FYP\fyp\media\LocalSellerData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BNU\Sem7\Project Part-2\FYP\fyp\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FFA322-DC28-4279-885F-033C069311A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BA64AD-9FC0-4EB0-8C1B-379EEC003493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8C35D77C-FE12-4875-98D0-F42CAEE5FF18}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>product_name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">iPhone 13 </t>
+  </si>
+  <si>
+    <t>product_type</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BF66D-B856-4952-9423-602171CD3C65}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,76 +429,103 @@
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>250000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>250000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>250000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>35000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
         <v>40000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>55000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>65000</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
